--- a/data/hotels_by_city/Dallas/Dallas_shard_252.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_252.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="996">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Monica D</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This hotel is quite run down.  It is in need of some major renovations and to be honest, the pool area is downright gross.  The location is OK if you have a vehicle or most things are a close Uber away.  There are a couple of restaurants and a bit of upscale shopping close by.  The only great thing about this hotel was that their breakfast was awesome.  But the hotel itself needs a major facelift.More</t>
   </si>
   <si>
+    <t>Crawfish Boil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r569388619-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>First the good points: Great location next to walking trail and other attractions. Friendly staff. Good breakfast. Comfortable beds. Next, the problems: Noisy due to hearing every footstep in the room above us. A member of our party had no hot water one morning. Their room was comped. The hotel feels a bit dated.In comparison to 2013 the prices have gone up quite a bit so it's not as good a value. I still like it though and I probably would give it between a 3 and 4.More</t>
   </si>
   <si>
+    <t>Geenza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r562990168-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -247,6 +256,9 @@
   </si>
   <si>
     <t>I'll start by saying that I'm a Marriott fan... this hotel could use some TLC, but it's not bad.  Your room will have a little fridge which is nice.  There is an indoor pool (I didn't use).  I had a small issue with my room and the service was there ricky tick.  Problem taken care of in a flash. THANKS!  There's a nice little spread of breakfast choices in the morning for you, too.More</t>
+  </si>
+  <si>
+    <t>Eric H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r548307822-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -284,6 +296,9 @@
 Its not a hotel I would look...I would rather have given this a 3.5, but I wasn't able to and I just couldn't give it a 4.  First off, the staff are great here.  When I checked in I was not feeling very well.   The next day when I got back to my room there was a note and a can of Chicken Soup waiting for me.  I know it's a small gesture, but it was appreciated.The hotel is decent shape.  I stayed in 3 different rooms over 3 weeks and they were all in the same serviceable condition.  Nothing special but no negatives worth noting.  The internet in the rooms worked well and parking is plentiful.  This is a step down from a Courtyard or Residence Inn but for a business traveler it had everything I needed.I didn't go out much but there is a Panera, a couple of Steakhouses and a Shopping Mall very close by.  It's less than a 5 minute drive to TCU.I did use there exercise room and it is OK.  Two treadmills, an elliptical and a bike crammed into one small room.  I got a machine every time I went down there.  There are TV's but I  couldn't get any channels on the ones integrated with the treadmills and you have to crank your head to the left to see the room TV so I would bring your own entertainment.Its not a hotel I would look forward to coming to or fondly remember but it was a fine place to stay and met my expectations.More</t>
   </si>
   <si>
+    <t>MacPike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r540052155-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -311,6 +326,9 @@
     <t>This hotel is very nice and very friendly. It is located close to many places, hospital, TCU Campus, Botanical Gardens, Zoo, Shopping, Restaurants. Close to major highways and easy drive to downtown. It is clean, comfortable, quiet and priced right. We will return here any time w return to visit Fort Worth!More</t>
   </si>
   <si>
+    <t>shorenut-11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r533531047-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -335,6 +353,9 @@
     <t>We were in Fort Worth for a wedding. This hotel perfectly suited our needs. The staff were all extremely friendly. The breakfast was awesome -  everything you could wish for, including eggs, waffles, fresh fruit, yogurt, oatmeal and breads. The trains were loud but they have lots of options to help with this - earplugs, sound machines, etc. The bed was extremely comfortable.More</t>
   </si>
   <si>
+    <t>BL_WPB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r533118163-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -359,6 +380,9 @@
     <t>I am a Marriott Gold for the last 4-5 years, and that does not include other hotel chains where I stay due to some preferred local contracts.  Probably one of the more significant things is out of their control – there is railroad not far from the property, and the train whistles woke me up every night.Now, some things that are within their control.  The room felt damp.  No moldy (yet), but definitely damp when walking in, which is possibly the a/c was set at mid-sixties.There is a huge gap between the entry door and the door frame on two sides (see photo), so I could hear every single person walking in the hallway.In the shower, the shower head was very low, with water hitting me chest-high when I pushed the shower head as far horizontally as it could go. The water pressure was great, but at that angle, if I did not adjust the shower head angle back down again, the water would bounce off the walls and spill on the floor.On the first night, the alarm clock was not reset from the prior customer, so that woke me a bit earlier than I intended.The iron had some parts (buttons) broken or missing. It was still working, but did not convey a good feeling about small things being taken care of.More</t>
   </si>
   <si>
+    <t>Antogone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r512681294-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
   </si>
   <si>
     <t>Good hotel! Comfy beds with all amenities you need. Hotel has a great exercise swimming pool and friendly staff. Checkout is noon and you can swim until midnight. It's very  close to campus ,the Kimball and several eateries  Please, no worries on the trains. Book your room in back section of the hotel on floor 3 or 4.  The trains sounds are soft and lullaby like.  Sounds are not anything like the trains in "My Cousin Vinny"!!!More</t>
+  </si>
+  <si>
+    <t>nkfleming</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r507463397-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -417,6 +444,9 @@
 I did not experience the train noise, but you could hear all the other activity near or above your room.  Breakfast...Staff was friendly but a single person on the evening shift can't handle it all by themselves.  Checked into my room around 6:30 p.m., found that the TV didn't work.  Notified the desk and they said would call back.  An hour later I called the desk again and they had not done anything yet, citing too busy.  Finally came and checked the items I had already checked - I get it, you have to follow the steps.  During all of this I found that the deadbolt on the room didn't function unless you had the man of steel grip and strength.  It ending up being around 8:30 before I was moved into another room with working amenities.  Staff made no offers to reduce the cost of the room because of the issues and my inconvenience and did nothing but say we're sorry you had an issue.  Both rooms were clean but in need of maintenance, there were several places where you could see the carpet seam had not been seamed together just laid down.  Floors were uneven in the hallways, don't know if it was the pad or the actual flooring.  "Free" wifi as advertised is modem/DSL speed, not a speed you can do actual work over.  Pool area was clean, timer on whirlpool is broken into always on.I did not experience the train noise, but you could hear all the other activity near or above your room.  Breakfast was good and area was clean.  It was okay but not for the $ of the reservation.  I have had similar rooms/amenities in the same areas for quite a bit less.More</t>
   </si>
   <si>
+    <t>b l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r499524602-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -444,6 +474,9 @@
     <t>We stayed here a while back and it was a great one night getaway.  We spent the night here and went to the museum the next day.  The hotel decor was very modern and the staff was great.  We would certainly stay here again!!More</t>
   </si>
   <si>
+    <t>HoldDaDoor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r481917916-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +504,9 @@
     <t>I actually enjoyed my stay in this hotel and it was really close to everything in Fort Worth.The only downside was its closeness to a train yard that gave me a very long lullaby of train whistles at 2am.If you do stay here, try and get a room on the backside of the hotel.More</t>
   </si>
   <si>
+    <t>525mash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r481268961-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,6 +534,9 @@
     <t>We have stayed here several times and on two occasions we extended our stay because of the great staff, very nice room, and wonderful breakfasts.  We are staying there again this year in July and will continue to book it each time we are in the area  Added bonus is the restaurant across the parking lot.....Pancake House, not just for breakfast but serves great lunches besides breakfast foods.More</t>
   </si>
   <si>
+    <t>DallasMomDadKids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r475240360-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +564,9 @@
     <t>I found this hotel to be super clean and nice, at a very good price.  The bed was super comfortable, bathroom clean and new, carpet clean, no unusual smells.  Breakfast was fresh and hot.  I didn't try the hot tub, but the pool area was clean and new.   The only issue with this hotel is that it's right next to a train line that runs at night.  I slept just fine, but the trains are always there and very active.  The air conditioner was loud enough to drown out most of the train activity.  I didn't think that the trains were bad enough to deter from the value.More</t>
   </si>
   <si>
+    <t>Desiree M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r469503869-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,6 +592,9 @@
   </si>
   <si>
     <t>We stayed in the king suite w/ a sofa bed.The bed was very uncomfortable.Our phone didn't work.Our room was clean and the breakfast was good.Not what I expected but was ok for 1 night.The pool and jacuzzi was good for the kids.More</t>
+  </si>
+  <si>
+    <t>CarriePCT</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r469283171-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -595,6 +640,9 @@
 Room has refrigerator and microwave. Everything was clean, it was comfortable. plenty of room. coffee machine in...Pros:I reserved it through Marriott and they had special deal while visiting college. TCU was less than 10 mins away. Also the stockyard was about 15? still close by for a visit while we were in town. I did see the zoo when we were driving towards the school so that's not far eitherright off the highway but my bad night vision made me miss it the first time I got there but after I found it, it was easy enough to find after thatwarm cookies!we got a welcome bag when we checked in, granola bar and water....can't remember what else but that was nice. Should have asked for an extra bottle since there were 2 of us.earbuds available 'cause of the train but it actually never bothered us.  I read other reviews noting they have a white noise machine so that's cool if you need it.Macaroni Grill and a Wafflehouse in walking distance.  There were few other fast food places across the road but didn't go there. oh and the front desk has a list of nearby restaurants if you want to see what else is around.Breakfast every morning! hot and cold items.  Scrambled eggs, turkey or pork sausage. Texas shape waffles! cereal, fruit, bread, bagels, some pastries. coffee, tea, juice, milk and soy milk!Room has refrigerator and microwave. Everything was clean, it was comfortable. plenty of room. coffee machine in the room too. Shower had good pressure. usual marriott toiletries. Staff were all very pleasant, friendly and helpful!Plenty of parking. Decent gym, laundry services if needed.Cons:nothing much really so I'm nitpicking here about the breakfast. I wanted some muffins but they didn't have any.Bathroom is slightly old and I think someone was trying to install/glue some soap trays in the corner of the shower...a really bad job....caulk everywhere and not cleaned up. might want to clean that up a bitElevator also bit old and small but it was functional.  If anyone read my other hotel reviews, I have a thing about elevators in hotels. They have to be quick. Standing waiting for an elevator while the line builds up is not very efficient or does it make a guest very happy.  This elevator was fine but it was slow. I took the stairs most of the time except for check in and check in since we had suitcases but it came in decent time.overall it was a great stay!More</t>
   </si>
   <si>
+    <t>Gummiol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r458527174-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -619,6 +667,9 @@
     <t>The hotel staff are extremely friendly and polite. They go the extra mile to assist and always have a smile on their face. They gym is fair, relaxed for a good 15 minutes in hot tub and had a swim in the pool which was great. Room quality is good, coffeemakers, good beds. Internet connection was fair and free. Location is also quite good, will only take you about 8-10 minutes by car to get to the city center which has a lot to offer in terms of shops, bars and restaurants. The only thing bad about this hotel is the freight train that passes it during the night and blows the horn. It woke me up every night around 2 AM ish. The hotel is aware of it and does offer ways to minimize the noise.More</t>
   </si>
   <si>
+    <t>Tony1784</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r440742565-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -640,6 +691,9 @@
     <t>The room quality and cleanliness and the staff were great with no negatives. Parking was ample. It is located on the same street as many cultural museums which was my own reason for selecting this place. The continental breakfast offered many alternatives to satisfy one's appetite. There is a Macaroni Grill restaurant and a 24/7 pancake house right across the parking lot so there is no need to get into one's car to go and eat. Some commentators have mentioned the railroad tracks close by but the trains rolling by did not impact me or my ability to sleep even though I was overlooking them on the third floor, perhaps because there is good sound proofing. The next time I am visiting the museums here I will certainly again stay at this inn.More</t>
   </si>
   <si>
+    <t>Ashley G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r431066020-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -664,6 +718,9 @@
     <t>Went to Dallas/Fort Worth to visit my boyfriend for two days everything was very pleasant room was clean and spacious. Staff were super nice! Only thing was the noise of the trains at night when I was trying to sleep but it wasn't much of a big deal!!! Its super convenient location wise to! Close to the zoo which was number 1 on my activities list!! Definitely will stay again next time in in the Dallas/Fort Worth areaMore</t>
   </si>
   <si>
+    <t>Logan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r421171498-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -682,6 +739,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Cindy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r418474698-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -697,6 +757,9 @@
     <t>We were only in town for 1 night and stayed at the Fairfield Inn on University to be close to the TCU stadium.  It was very clean and staff was very nice upon check in and as we went in and out.  We did enjoy the breakfast provided and the young man supervising breakfast was very friendly and helpful.  Overall an enjoyable stay that I would recommend and stay there again.</t>
   </si>
   <si>
+    <t>mmf40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r407139397-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -721,6 +784,9 @@
     <t>If you are not a light sleeper this will be a good place for you. If trains and highway ramps fully functioning all night long might bother you then get a room in the back side of the building. Night staff was less than friendly, had to call out to get her to show at the desk at 9:39 pm. She barely conversed with me and never looked up.  Am staff was much better. Breakfast was above average and nothing ran our, even through it was packed with returning TCU families and students.More</t>
   </si>
   <si>
+    <t>Hornedfrog84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r407077362-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -733,6 +799,9 @@
     <t>The hotel was very pleasant, the front desk and morning breakfast buffet teams were very kind and accommodating. The location is brilliant, with a major freeway less than a minute away which meant freedom to explore the wider Fort Worth area.A TCU graduate ('84), I've been away in the UK and UAE for 20+ years; it was a great homecoming and loved bringing my kids to my old alma mater (Go Frogs!).</t>
   </si>
   <si>
+    <t>GGibson19991738</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r406126375-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -748,6 +817,9 @@
     <t xml:space="preserve">Dropping my daughter off to college was hard enough but this place is AWESOME and convenient. Clean and nice decor and the staff is amazing but overall Ryanne was simply marvelous I will continue to stay here because of her. Super close to campus and many restaurants </t>
   </si>
   <si>
+    <t>dpru76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r402471769-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -763,6 +835,9 @@
     <t>Stayed here 2 nights, about 30 min away from the DFW Airport and up the street from the zoo. Nice rooms with easy access to the freeways. There's also shopping centers nearby for anyone that doesn't have a car with them.</t>
   </si>
   <si>
+    <t>TexWorldTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r395652132-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -778,12 +853,18 @@
     <t>This is a nice place to stay when visiting TCU, which we did for a graduation.  The staff are very friendly and helpful with everything.  The rooms are clean, cool and quiet.  It has a nice fast breakfast too.</t>
   </si>
   <si>
+    <t>Stephen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r387399961-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>387399961</t>
   </si>
   <si>
+    <t>janegrah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r382316602-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -805,6 +886,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Cowgirl07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r376562706-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -826,6 +910,9 @@
     <t>Check in was quick and easy; front desk gentleman was friendly and welcoming.  He made a special effort to get us rooms next to each other. Cookies had been available but were gone by the time we got there around 7.Room was a nice size, not cramped for three people. Frig and microwave available; room was clean and inviting; bathroom was clean and the countertop looked new.  In fact, the overall room looked fresh and new; decorations were simple but in good taste.  Breakfast was good; sufficient for an 'on the go' type meal.  Macaroni Grill and Ol' South Pancake House are on the attached parking lot, easy walking distance.  Was very pleased with our experience here and would recommend it again.More</t>
   </si>
   <si>
+    <t>MFD514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r373844227-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -841,6 +928,9 @@
     <t>I had one negative on the hotel...the trains that run all night nearby.  But I'd responded to a questionnaire that the hotel sent right after my stay and the manager wrote back that they do offer ear buds and white noise machines to guests.  That would have helped.  I'd suggest asking for a room on the opposite side from train tracks and then getting the buds and machine.  Really, on the whole, I loved the place and the staff, and the location was perfect for me.  I'd definitely stay there again.</t>
   </si>
   <si>
+    <t>C M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r373805536-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -853,6 +943,9 @@
     <t>We booked 16 rooms for family and guests for our daughter's wedding May 14.  Tami, the hotel manager,  paid special attention to all our requests and assisted PATIENTLY with changes we made.   The hotel was full that weekend and yet we still received excellent attention and assistance - rooms were immaculate and well priced for the area.  We were able to bring in dinner one night and all eat together in the dining area which was so relaxing after a busy day of travel for everyone.  Everyone on the staff was so pleasant and helpful!  Super!</t>
   </si>
   <si>
+    <t>Judy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r369088439-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -874,6 +967,9 @@
     <t>Wow!  Where to begin?!   Start at beginning.  Check-in was great.  We checked in through Marriott app and literally just took seconds at front desk.  FYI, we checked in early and they kept large bowl of mints all day there; we did notice through our five day/four night stay that during check-in time they always had fresh chocolate chip cookies at front desk for anyone to grab, which, along with the 24 hour coffee/tea bar in the breakfast area, makes a very nice pick-you-up in the afternoon!  Room was awesome.  I like a continuous fan all night and the thermostat had a setting for continuous fan which I have never seen that before, so added that to the AC and the room was quite cool and comfortable all day and all night.  End table lamps had electrical outlets on the lamp stand itself, which was nice to charge phones/iPads, etc.  There is free wifi and we had no problem accessing it during day and evenings.  All rooms have fridges and microwaves.  Room was cleaned very nicely every day.  Used gym: free weights, 1 elliptical, and 2 treadmills.  Cardio equipment had built in tvs for each piece, so bring your headphones!  Did use whirlpool in pool area, which was nice.  Breakfast is AWESOME!  Healthy breakfast mostly.  Real scrambled eggs most mornings along with a pre made omlette or frittata, plus turkey bacon and/or turkey ham.  Waffles, boiled eggs, at least 4 kinds...Wow!  Where to begin?!   Start at beginning.  Check-in was great.  We checked in through Marriott app and literally just took seconds at front desk.  FYI, we checked in early and they kept large bowl of mints all day there; we did notice through our five day/four night stay that during check-in time they always had fresh chocolate chip cookies at front desk for anyone to grab, which, along with the 24 hour coffee/tea bar in the breakfast area, makes a very nice pick-you-up in the afternoon!  Room was awesome.  I like a continuous fan all night and the thermostat had a setting for continuous fan which I have never seen that before, so added that to the AC and the room was quite cool and comfortable all day and all night.  End table lamps had electrical outlets on the lamp stand itself, which was nice to charge phones/iPads, etc.  There is free wifi and we had no problem accessing it during day and evenings.  All rooms have fridges and microwaves.  Room was cleaned very nicely every day.  Used gym: free weights, 1 elliptical, and 2 treadmills.  Cardio equipment had built in tvs for each piece, so bring your headphones!  Did use whirlpool in pool area, which was nice.  Breakfast is AWESOME!  Healthy breakfast mostly.  Real scrambled eggs most mornings along with a pre made omlette or frittata, plus turkey bacon and/or turkey ham.  Waffles, boiled eggs, at least 4 kinds of fruit, different kinds of breads/bagels, cereals, including granola, plus different kinds of low calorie yogurt as well as Greek yogurt.  The ladies kept the breakfast area stocked during all times plus a manager would come over to help clean up and make sure everyone was happy.  I did notice one morning that a couple had to leave for airport early and told someone on duty that they couldn't stay to eat breakfast.  The nice lady behind the front desk told them to pick out what they wanted for breakfast and they would put cellophane around it for them to take onto the plane!  Very, very nice!  And every day when we would leave to go out, management always had complimentary bottles of water and granola bars in the lobby for us to grab out the door.  Very, very, very nice!  And our last day when we had to leave at 4:30 a.m., the coffee in the breakfast area was still hot and fresh!  Location is awesome!  TCU, zoo, botanical gardens, all just less than 5 minutes away.  Only downside is that there are train tracks nearby and trains do go by all times of day; however, I did notice that the horns...More</t>
   </si>
   <si>
+    <t>Ronald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r363482239-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -889,6 +985,9 @@
     <t>There's a  reason why I always pick Marriott, The experience I had here was second to none, guess checked in with plenty of people behind them, The front desk clerk Ericka realize the ladies card wasn't accepted, she act as if she check the lady in, check the other guess in, proceeded to tell the lady didn't want to make the lady look bad, by saying your card wasn't approve, after she checked in all the guess she explain to the young lady the issues. Not only was the lady happy how Ericka handled things, I was floored by the class and character Ericka displayed,</t>
   </si>
   <si>
+    <t>thjenks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r357566289-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1006,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Timon88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r357201343-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1033,9 @@
     <t>Decent enough. Nicely appointed rooms, although the beds are too soft. Refrigerators and microwaves in every room - good if you're hanging around for more than one night.  The building itself is of cheap construction (typical for this part of the country), resulting in, among other things, a lot of noise coming in from other rooms.  It's also right next to a freight train line - another source of noise.  Pleasant if inefficient staff, and the front desk was frequently completely unmanned.  Inexplicably, this place seems to be almost always full, so if you happen to need a late check-out, it may be a problem.  It's well-located, near TCU, the zoo, medical center, etc., but there are much better options for less money (this place is PRICEY--also completely inexplicably) in Fort Worth, even on the same street.More</t>
   </si>
   <si>
+    <t>JRads_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r356405357-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1063,9 @@
     <t>Everyone we encountered at the hotel was quite nice.  The hotel itself is fine- good area for breakfast, the room was decent, but OMG- the freight trains that come through in the middle of the night while you're sleeping are LOUD!!!  I should've realized this after the first night and gotten some earplugs from the front desk, but I forgot and was awakened on my second night there by the same loud trains.  Other than that, the location is convenient to TCU, the zoo, and local restaurants/shopping. If you stay here, just remember to bring earplugs or ask for them at the front desk!More</t>
   </si>
   <si>
+    <t>missteeLondon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r352963082-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1084,9 @@
     <t>Spent a couple of nights here with husband and daughter. It was really clean, must have been recently renovated. We had a queen room with two beds, microwave and fridge overlooking the back street, no view to speak of but very quiet at night. Lovely check in person and all other staff very friendly. The laundry room saw shut for servicing while we were there but appeared to be opened when we checked out. It had a coin operated washer and dryer. There is also an indoor pool and hot tub but we didn't use them. Some great restaurants within walking distance, like the Smoke House. Also a shopping village across the road and petrol station in the corner. More</t>
   </si>
   <si>
+    <t>Kenneth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r350547350-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1105,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r344398162-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1126,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>JackFromStateFarm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r343444847-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1144,9 @@
     <t xml:space="preserve">Everybody was awesome spectacular couldn't ask for any better customer service the Renovation updates are so beautiful I will definitely be returning. However breakfast needs ham or hash browns at least that would make this hotel super perfect </t>
   </si>
   <si>
+    <t>Maggie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r342236250-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1162,9 @@
     <t>Hotel is being updated and still the rooms were very clean and comfortable.  Great service from Ryanne and Brechelle.  All the staff was friendly and helpful.  Even the security guard was pleasant!  I appreciated the wonderful service &amp; the cookies were awesome!</t>
   </si>
   <si>
+    <t>HappyCustomer5517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r338309992-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1180,9 @@
     <t xml:space="preserve">Everyone was great especially Ryan (don't think it's spelled right) she's a keeper as long as she's working I'll be back continuously breakfast can be a little different but for the most part I enjoyed my stay although this hotel is getting remodeled I could see any signs of dust and dirt because the lady at the desk was always cleaning I could always tell when she was at work because the little lobby area and hallways would look and smell magnificent </t>
   </si>
   <si>
+    <t>Misty W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r334393992-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1201,9 @@
     <t>I just have to say that Ryanne was absolutely incredible. I had locked my keys in my car and she went above and beyond helping me. From her letting me use the office to make a phone call in a quiet place to my roadside assistance.  I had to wait outside because of having wait for roadside and she brought me a chair to sit near the window to stay out of the cold. She left me a personalized note in my room and even gave me a phone call later to check on us. Very happy with her service and thank you for making it such a great night.More</t>
   </si>
   <si>
+    <t>Porcophile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r334391774-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1216,9 @@
     <t>The place is being refurbished and our room was fresh and spotless. The breakfast was up a notch from the usual, with scrambled eggs that actually looked worth eating. Staff was friendly and polite. There are several eating places within walking distance. You are next to an elevated highway and a constantly busy railroad track, but the traffic amounted to gentle white noise and I like the sound of trains. The free wireless is so,slow as to be almost worthless, but there is a $5 high-speed option.</t>
   </si>
   <si>
+    <t>Shilabharo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r332490204-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1234,9 @@
     <t>This is a clean comfortable hotel with very attentive and courteous staff. The price is great and includes a full hearty breakfast and some of the yummiest chocolate chip served warm cookies I have ever tasted. Ok, ok, hotel cookies are incredible? Yes, management informed me they are purchased from a private bakery. I would stay here again and not just for the cookies :-)</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r324306010-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1255,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Brad A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r321250936-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1282,9 @@
     <t>Walked into this hotel and was met by an extremely friendly lady and gentleman behind the desk. They were very helpful with the check-in. My room was a studio room. Nice room, very spacious and quiet. My only hesitation about this hotel is that it is in a sketchy part of town and it seemed like there were always people sitting outside smoking and staring at you when you walked in or walked out. Nice hotel, but I don't think I will stay here again.More</t>
   </si>
   <si>
+    <t>Stanley A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r319371277-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1300,9 @@
     <t>Enjoyed the 2 nights.  It was nice to see the management staff out with the public checking up on things and really nice to see the management staff up on the floors checking on things.  Rarely see that commitment to public care.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r316858081-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1318,9 @@
     <t xml:space="preserve">In October I stayed at this hotel for 3 nights. I had an outpatient surgery and needed a place to sleep and recover before driving home to another city. All the staff was great. Brechelle went above and beyond to make me feel welcome and comfortable. She even sent up a goodie bag to help me feel better! Definitely recommend this hotel to others! </t>
   </si>
   <si>
+    <t>DaSteeler1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r316548043-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1339,9 @@
     <t>Room was a little dated but nothing too bad that I would avoid coming back to but the big thing was the service.We received a call from the hotel we are staying at tomorrow saying there was a flood and they were moving ur stay to a different hotel.The front desk person overheard and jumped right in to handle it for us by making several calls different locations, following up with us quickly and resolving the issue.She didn't have to do any of it and didn't hesitate for one second to help.She is a keeper and things like that normally comes from the top down so cudos to the staff at this location.More</t>
   </si>
   <si>
+    <t>L17Ally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r311416093-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1360,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>cassie j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r309362566-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1381,9 @@
     <t>We made a trip to ft worth later in the afternoon to be able to attend a dr appointment with cook children's the following morning we came in around 8pm were immediately greeted by the sweetest most genuinely helpful person I've ever encountered in a hotel!  Rhyanne was amazing checked us in quick showed us where our rooms were answered a million questions i had with total patience and very knowledgeable answers made us feel right at home! The room was very clean the beds were very comfortable we didnt stay for breakfast but walking out i noticed they had quite a bit to choose from. Overall our stay was amazing we will gladly recommend people stay thereMore</t>
   </si>
   <si>
+    <t>L A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r303513549-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1411,9 @@
     <t>I stayed here as I passed through town. I arrived on the last flight from my city and was just stopping for sleep as i was leaving the next morning on a road trip to California.  When I arrived i waited for the desk clerk for maybe 8-10 min and boy was I tired. I thought about using the indoor pool but decided not to. I did not get to have breakfast since it began too late for my day that day.  It did not feel like a Marriott partner, more like Super 8 with dark and narrow hallways. The area outside the hotel is super dark from the highway construction. There is a Macaroni grill right next door, sadly it closed by the time I arrived.More</t>
   </si>
   <si>
+    <t>Harmonk88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r302550747-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1429,9 @@
     <t>Great location a visit to a TCU football game or college tour.  Rooms are average and what you expect for a Fairfield Inn.  Breakfast is included but if you prefer a better alternative I would walk a few steps to Ole South Pancake House.  Wi-fi is connection is good and also included.</t>
   </si>
   <si>
+    <t>tigerfood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r301134714-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1297,6 +1459,9 @@
     <t>We used to enjoy staying here when we had remodeling done on our house.  Our kids loved the indoor swimming pool and the free breakfast was adequate.  On our last stay, we had a series of events that have caused us to reconsider staying here again.  One thing that kept consistently happening is that everytime we left our room, when we would return, our key would not work.  We would have to return to the front desk and have it re-keyed.  At some point, we noticed some items missing from our room and the front desk staff was not helpful and of course, the expensive items were never returned.  Unless there is a safe in the room you can use - don't stay here.More</t>
   </si>
   <si>
+    <t>MeinColorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r275708350-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1480,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>elizabeth s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r270937452-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1498,9 @@
     <t>The reason for the excellent rating is because of the customer service provided by Ryanne Ashley.  From the moment we checked in she showed us  5 star hotel treatment.  In fact all the staff goes above and beyond what is required to make you feel welcome and comfortable for your stay.  We will be coming back again and again for sure!</t>
   </si>
   <si>
+    <t>Tracy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r270296134-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1516,9 @@
     <t>It is always a pleasure to be here in Ft. Worth, Tx whether it's for business, or pleasure. I can always count on Ryanne Ashley, at the Fairfield Inn, she goes over &amp; beyond to make sure my stay is pleasant. Here at the Fairfield, they Voted # 1 in my eyes. Along with Ryanne would like to thank the staff, for outstanding Customer Service.</t>
   </si>
   <si>
+    <t>Greg G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r268308410-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1366,6 +1540,9 @@
     <t>I do recommend this property.  It is right by interstate that is going through construction so a bit complicated, but that's Texas.  It's near the zoo and cultural district as well as downtown.  The restaurants are diverse and all near by, including a nice 24 hour breakfast place in same parking lot and Macaroni Grill as well.  Clean, lovely, very Marriott.  My only "issue" is that the building is built poorly like a Super 8.  The floors creak and are very thin.  I didn't have issues with hearing people next door, I just hear the floor above me and the children and parents walking.  Literally my ceiling was moving.  There were LOTS of families with young children staying here, so they were up early and to bed late.  That could be an issue.  I would recommend a top floor so no one is above you.All in all, a very good hotel.  Indoor pool, breakfast (very busy) and the staff were INCREDIBLY FRIENDLY.  I do recommend.More</t>
   </si>
   <si>
+    <t>KimGleason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r261626334-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1567,9 @@
     <t>I wanted to find an inexpensive spot to stay since we really just needed the space for sleeping.  Though the hotel is located near a decent area, the hotel itself is on a strange corner and you have to drive through the Macaroni Grill parking lot to get to it.  It's smack dab on the highway, but our room was on the opposite side, so sound was not an issue.  At check in, there was a sign saying that the attendant was helping another guest and would be back soon...she was the ONLY employee in the hotel.  I found that strange and unsettling.  When we arrived back to the hotel at about 10 pm, I noticed a guard in the parking lot, which I guess was a good thing?   Breakfast was included, but it wasn't nearly as nice as other similar hotels.   All that being said, I might stay here again if I just needed a spot to lay my head for a few hours.More</t>
   </si>
   <si>
+    <t>gin1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r259318098-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1597,9 @@
     <t>Stayed at this hotel when we were at The Patriot Team Roping I FT, Worth, TX.  We paid for an Executive Suite and were  very disappointed.  The T.V. sat in between Sitting area and Bed room had to watch at an angel.  Bathroom floor dirty and room smelled dirty.More</t>
   </si>
   <si>
+    <t>Supriya S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r252701898-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1627,9 @@
     <t>I stayed here while I was on a business trip.Stayed here for 2 weeks. The same breakfast was served everyday! Also the breakfast spread was very small with very few options to choose from. Rooms were large and clean. Staff was courteous and ensured a pleasant stay.I had an issue related to billing during checkout which took a while to get sorted. I wish the staff would clarify the transactions made on my card. Since I was getting late for my flight, I had to leave. I had informed regarding the check out one day prior and yet the process took too long.More</t>
   </si>
   <si>
+    <t>SCFFTF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r247874367-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1661,9 @@
   </si>
   <si>
     <t>December 2014</t>
+  </si>
+  <si>
+    <t>Papa-201</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r241489741-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -1500,6 +1689,9 @@
 On Saturday morning (as well as Sunday and Monday mornings), we enjoyed a complimentary buffet that was complete, tasty, varied and consistently replenished by Loretta -- a very friendly and attentive member of staff.  On the way to breakfast, we had mentioned to Gaby, another key member of staff, that we were looking for things to do with the grandkids and when we finished breakfast she had prepared a list of 10 to 12 activities within a couple of miles of the hotel.  Then followed another trip to the pool and hot tub, followed by a stop at a nearby Starbucks (6 blocks away), then a visit to the Ft. Worth Children's Museum -- about 1.5 miles from the hotel.  The...My wife and I accompanied our daughter on a business trip to Ft. Worth this past weekend (three nights) to take care of our three grandchildren, ages 9, 7 and 5.  The Fairfield Inn was the PERFECT place to stay with respect to accomodations and location.  We arrived several hours before standard check-in and, no problem, we were given clean, comfortable rooms.  The beds were comfortable and the bathrooms were spotless and well maintained.   We were hungry for lunch and, voila, the Macaroni Grill was about 100 yards away.  After lunch we swam in the indoor pool  (lovely temperature) for an hour and also enjoyed the hot tub -- a perfect 104 degrees.  Dinner was at a friend's house.On Saturday morning (as well as Sunday and Monday mornings), we enjoyed a complimentary buffet that was complete, tasty, varied and consistently replenished by Loretta -- a very friendly and attentive member of staff.  On the way to breakfast, we had mentioned to Gaby, another key member of staff, that we were looking for things to do with the grandkids and when we finished breakfast she had prepared a list of 10 to 12 activities within a couple of miles of the hotel.  Then followed another trip to the pool and hot tub, followed by a stop at a nearby Starbucks (6 blocks away), then a visit to the Ft. Worth Children's Museum -- about 1.5 miles from the hotel.  The museum was amazing!Other activities we enjoyed during our stay included a walk along the Trinity River, with the trail passing several hundred yards behind the hotel.  (This concrete trail goes on for 26 miles, we were told, and it is popular with walkers, joggers and bikers.)  Also located about 1/2 mile from the hotel (on the same Trinity River trail) is a small-scale railroad we all rode that travels a loop of 4 to 5 miles, taking approximately 40 minutes.  We also drove about 3 miles north (15 minutes) to Sundance Square, in downtown Ft. Worth, which features a water pad that kids can walk through (check hours on this) and numerous outside restaurants -- including Starbucks -- surrounding the square where inside and outside tables are plentiful.  There were many Ft. Worth citizens in the Square enjoying the beautiful weather, but it was never crowded.  There was a "visit Santa" booth set up that was very popular and we concluded that people in Ft. Worth know how to enjoy their beautiful city.Another amazing place to visit, approximately 30 minutes SW from downtown Ft. Worth (20 minutes from the Fairfield...More</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r235973962-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1710,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>nagy51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r230349370-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1734,9 @@
     <t>I stayed there three nights and absolutely loved the room and the service. The day I checked in, the hotel was installing all new mattress to every room, mine included. All rooms also had new comforters on the bed. I asked for extra pillows and another comforter and received it quickly, no questions asked.  The rooms were clean and smelled clean as well. There were plenty of places to eat within walking distance and there was a strip mall across the street. There were some great shops! No reason to have a car, great location!   Everyone I spoke to was sooo nice! I highly recommend this hotel. Thank you for a great hotel stay!More</t>
   </si>
   <si>
+    <t>mwhitneyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r229637933-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1752,9 @@
     <t>We were greeted by Ryanne at the front desk. She was very pleasant, helpful and she had a wonderful personality. The room was clean and comfortable, especially for the price. I will stay here again if/when need be. Thanks, Ryanne!</t>
   </si>
   <si>
+    <t>FishinRus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r225355130-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1770,9 @@
     <t xml:space="preserve">Great people, very friendly.  My concern was their concern.  The hotel room was clean and organized well.  They have a decent breakfast or you can walk across the way to a different breakfast place.  Whenever it's possible I'll stay here again. </t>
   </si>
   <si>
+    <t>fredandpeggy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r217439951-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1788,9 @@
     <t>We stayed here overnight with two grandchildren, aged eight and nine. Clean, great pool, nice, kid-friendly restaurant, cookies upon arrival - perfect for us all! The breakfast was plentiful and delicious. The Texas shaped waffles were a real hit with the grands.</t>
   </si>
   <si>
+    <t>Bryan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r217221796-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1818,9 @@
     <t>I've stayed here 3 times in the past 3 years, always on business due to its good location. While I would say the cleanliness of the hotel has improved some, the overall condition is a little rundown and the musty smell in my room, was a real letdown. I also saw some minor mold in the bathroom, in the tub caulking. The common areas such as the lobby, are in better shape and the staff was polite and attentive. Not a great place to stay, but it does the job.More</t>
   </si>
   <si>
+    <t>Craigh-KRPH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r199474657-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1839,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>SabrinaBda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r194580797-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1866,9 @@
     <t>I am still here as I write this, but felt it extremely important to write a review as soon as possible.I have never experienced more friendly and genuinely warm hotel staff. They really go out of their way to make you feel comfortable and welcome. I asked to change rooms halfway through my stay, in light of an unsettling encounter with a fellow guest (it may have been nothing, but I felt uncomfortable) - the front desk staff were unbelievably accommodating and understanding. They asked if they needed to be aware of this person, and I asked that a big deal not be made of it. They respected that, but showed real concern.They greet me by name every day, and have even offered to get alternative laundry detergent for me, when I said I was allergic to the brand they had for sale.I can't emphasize enough how awesome the staff is here!!!The reason the room rating isn't excellent is because the water temperature is a bit cool, but I'm sure if I mentioned it to them they would look to correct it (I just didn't want to be a pain).Completely impressed with the level of customer service not seen at a much higher priced hotel. I would absolutely stay here again.More</t>
   </si>
   <si>
+    <t>RovingCriticDFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r192478476-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1896,9 @@
     <t>I really liked this hotel because of it's location. It is 5 minutes from the outstanding Ft. Worth Zoo and the Cultural District (Botanic Gardens, Japanese Gardens, Museums of art, natural history, western culture, etc. and the Ft. Worth Stock Show and Rodeo). Texas Christian University is also a five minute drive away. The staff is exceptionally helpful. The only reason for not rating it a five is that the rooms are a little small. It wasn't an issue for us as we don't spend a lot of the day in the room, and the kids enjoyed the indoor pool. It also has a complimentary breakfast and the Wi-Fi worked well. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Tony S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r192053344-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1923,9 @@
     <t>We picked this place because it was near to JPS hospital for visiting a family member and close to their home. The friendly and kind staff made out of towner's like us feel comfortable and right at home. The complimentary breakfast was good. Thanks to Aldrian Jones, Andrew (Robert Dinero Fan Club member), Colin (musical talent), David Moran, Ms. Loretta, Olga and others for your kindness and generous support.We're back home in New York City, but we miss you guys already.More</t>
   </si>
   <si>
+    <t>CCTraveler56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r191455710-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1950,9 @@
     <t>Just spent the weekend at this hotel which was conveniently located to TCU and my daughter's apartment. The rooms were standard, an older hotel but updated, as was the free breakfast. What was outstanding was how friendly all of the front desk people were.  One in particular was there practically 24/7 while we were there.  I believe his name was Collin.  He was super nice, addressed my entire family, and even remembered my name from when I first checked in.  He made it a point to enjoy his job and in turn, made our stay very pleasant.  He even apologized when he told us there wasn't an ice machine on our floor!  Hey, he didn't design the hotel!  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Vestlouisiana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r187542689-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1977,9 @@
     <t>This hotel is very close to Texas Christian University and a nice shopping center. It's location is very good if you visiting a TCU student. Yet, if I was going to Fort Worth again, I would check out other hotel options. The room was not impressive. The beds were not particularly comfortable and the furniture looked a little worn. The shampoo and conditioner that they give you is Pantene Pro-V which I thought was kind of odd; I haven't seen a hotel give samples of that out in years. The service was ok. These are definitely not staff members who you could ask a favor from. They have a nice pool and a typical fitness room. Overall, I think this is the type of place that capitalizes on their location and therefore are able to charge more than their worth.More</t>
   </si>
   <si>
+    <t>skylanders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r185888139-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1770,6 +1998,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>James O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r185410534-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +2019,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Hniki234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r185026951-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2046,9 @@
     <t>We stayed one night at this hotel on a business trip.  The room was clean, staff was friendly, water temperature was great, and the bed was decently comfortable.  The downside was that trains loudly ran by all night long.  If you're a light sleeper, you'll want to pass on this place.  Otherwise, it's a nice place to stay!More</t>
   </si>
   <si>
+    <t>Suzy6450</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r173045661-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2076,9 @@
     <t>The hotel is a family friendly location and I was pleased until I discovered that one of my outfits was missing.  I had laid it out planning to wear it the next evening but, when we returned to our room that day, my skort and top were nowhere to be found.  I reported it to the staff.  The manager was on vacation and I was told that I would hear back.  I did not.  I have never had this happen before so not sure how it is typically handled.  My guess is that a call back from the manager is a customary next step.  We will not stay here again.  If you do, don't take anything you want to keep.More</t>
   </si>
   <si>
+    <t>tricia54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r173002452-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2097,9 @@
     <t>We stayed at the Fairfield Inn near to TCU to help our daughter move in to her dorm. From the greeting to our check out everything was fantastic. This hotel is rated 2 1/2 stars, but I would give the employees a 5 star. The breakfast was good and there was something for everyone. Coffee throughout the day and cookies in the late afternoon. Rooms were fine. My only problem would be the lighting. I like lots of light. Housekeeping was more than happy to accommodate us with extra's. Pool, jacuzzi and work out room were used by my family. Nice that the pool area from 10pm-12m is adults only. Our family will stay again.More</t>
   </si>
   <si>
+    <t>Allyson P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r170466583-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1881,6 +2124,9 @@
     <t>We stayed here during a horse show event; when we walked in the lobby was packed with a group checking.  A clerk took us to the side and checked us in without making us wait.  Nice touch and good service.  Very clean, well kept.  Much better than the Residence Inn down the street that we stayed in the rest of our visit.  Next time will stay here for the entire stay.  Very close to Will Rogers.  Breakfast so-so; average.More</t>
   </si>
   <si>
+    <t>b00kw0rm57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r168573723-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1908,6 +2154,9 @@
     <t>The room was very clean. It was overlooking the train tracks, and although I am a light sleeper, I was never disturbed by any noise. You can occasionally hear a train horn but nothing dramatic. The staff was friendly and accommodating, and the breakfast offerings were varied and adequate. Good coffee. Although more expensive than other hotels I looked at, you can't beat it for its convenience to Fort Worth attractions and IH-30. We were able to get to everything we wanted to easily and quickly. We also never had to park far from the hotel entrance at any time of the day. I would stay here again and recommend it to friends. The only negative is that the pool is small.More</t>
   </si>
   <si>
+    <t>MrsRichmond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r163798064-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2181,9 @@
     <t>Our room was fine, as with any other Fairfield I have visited. The location next to train tracks is one reason I won't stay here again. Every time I fell asleep a train would pass and wake me. The parking lot is next to the pancake house where I saw a few shady dealings and the fence blocking the underside of the overpass makes it seem like loiterers may have hung out there. We did not have any bad incidents but the lot was not as secure-feeling as I would have liked. The beds were very comfortable and the hotel itself was just fine but the noise and lot will keep me away in the future. More</t>
   </si>
   <si>
+    <t>TripTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r162990784-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1956,6 +2208,9 @@
     <t>We selected this Fairfield property based on its convenient location to the TCU campus as well as the fact that I am a Marriott Rewards member. Check in was very efficient and friendly.Our room was supplied with a coffee maker, microwave and small refrigerator. All pluses. A complimentary breakfast is served with a fairly wide selection of offerings including hot items. The property also has an indoor swimming pool and small business center.This Fairfield is located within walking distance of several restaurants as well as an attractive shopping center across the street. Ingress and egress to/from the property is a bit funky, but after awhile, one can figure out how to access the place off of South University.The only drawback is the noise factor. This Fairfield is close to a major rail line and I did hear guests above me clopping around.This is not a luxury property, however, for the money this property is well located in a nice area with many amenities, both internal to the Fairfield as well as external to its surrounding neighborhood.More</t>
   </si>
   <si>
+    <t>60one</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r162229029-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1977,6 +2232,9 @@
     <t>Stayed here for business the week before Memorial.  The hotel sits in a high traffic area of Ft Worth but just behind the hotel is the Trinity River and its trail system.  I day dreamed about walking the trail while I was at work during the day.   The staff was friendly and the room was clean.  It was a huge step up from the last Fairfield I had stayed at in The Woodlands, Tx.   Although there was traffic on the freeway and a train track, somehow the hotel feels isolated from all of that.  The hot breakfast was very good, again better than others.  Don't let the urban location scare you.  The trail makes it worth it.More</t>
   </si>
   <si>
+    <t>NashGuyNashville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r158103741-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2262,9 @@
     <t>I really enjoyed my two-night stay. Each one of the staff members that I encountered went beyond "friendly"; they stood from their seat if a guest entered, they smiled, they truly made me feel welcome. The fitness room and pool are well maintained. I didn't get to enjoy the river trails behind the hotel, but they look safe and inviting. The room was basic, but newly renovated and clean. Closet doors on this type of property are rare, but you will find them here. Stairways are carpeted and open, so it's easy to climb a few flights and not feel like you've "left the building." Overall, a great property, managed well.More</t>
   </si>
   <si>
+    <t>Zayix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r157373088-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2289,9 @@
     <t>I stayed at this hotel overnight on a business trip recently and found it suited my needs quite well. It has a descent indoor pool and exercise area, and is close to area restaurants and businesses. The room prices in this area of Ft. Worth are a bit higher than the average, but this hotel is economical compared to some of the other nearby hotels. The staff is friendly and the breakfast was descent. I'd stay here again.More</t>
   </si>
   <si>
+    <t>Rdog99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r157024853-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2319,9 @@
     <t>The hotel is close to the zoo, arboretum, museums.  The staff was very friendly.  You might want to try and get a room on the south side (river side) as the train is fairly noisy, although i didnt notice it much after I got to sleep.  The bathrooms are a little dated but they are OK.  You get a mini fridge so that helps if you are staying a few days.  Breakfast had a lot of options.  The room was a little under $100.00 which included a discount and I know you cant beat that price in the area.More</t>
   </si>
   <si>
+    <t>WiMomwithteens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r156828821-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2103,6 +2370,9 @@
     <t>The Trinity River walking trail is right out the door, which meant a lot to us. Combine that with comfortable beds, friendly staff, and good breakfast and you've got a winner. It's close to the freeway and train tracks but our room #225 was not noisy. Check out the Old South Pancake House next door - the "Dutch babies" are great!More</t>
   </si>
   <si>
+    <t>Dallasdad40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r154476313-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2391,9 @@
     <t>We live in Dallas and went to Fort Worth for few days during the kids' Spring Break for a change of pace.  We normally stay in downtown Fort Worth, but we really wanted an indoor pool for the kids to enjoy during the evening hours. I was pleased to find that they also have a hot tub. The hotel was clean and the lobby was nice/modern. The rooms are updated and have flat screens. I was able to easily hook up a DVD player to the TV; which was a plus. The location was very convenient to all the museums, Zoo, and Botanical Garden.  There was also shopping nearby and we were pleased with the restaurant selections, as well (Railhead Smokehouse, Sammy's Sweets, Terra's, and Kincaid's Hamburgers). The hotel breakfast was fine, although the selection was limited. I would definitely consider this hotel when touring Fort Worth.More</t>
   </si>
   <si>
+    <t>GC967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r153368046-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2145,6 +2418,9 @@
     <t>This hotel has been here a while but has certainly been cared for. Neat and clean, everything in working order, very comfortable beds and nice sized towels. The staff is exceptional, they go the extra mile and do it with graciousness and real caring. The indoor pool is wonderful and there is a very nice breakfast. You can't be disappointed by staying here.More</t>
   </si>
   <si>
+    <t>stellchum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r152349043-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2169,6 +2445,9 @@
     <t>We were in FW to tour the TCU campus. This hotel was less than 2 miles from campus and not on the TCU list of hotels near campus. The room was clean and spacious with all the amenities. Breakfast offered in the morning had something for everyone and lots of it. Heated pool and hot tub to soothe after a long day of walking around campus. A business center for your faxing/copying needs. It also shared a parking lot with Raising Cain's chicken and a 24 hour restaurant with the best breakfast and brownies. Easy access to freeway if you're heading to Cowboy Stadium. We traveled to Waco, College Station and appreciated the convenient location. Easy drive to the famed stockyards where the cattle run twice a day and the BBQ is amazing.More</t>
   </si>
   <si>
+    <t>Raymungus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r148806270-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2196,6 +2475,9 @@
     <t>We stayed here recently for a couple of nights and had a great experience. The staff was friendly and wonderful. We especially enjoyed the breakfast selections and coffee. The staff were very attentive to keeping the breakfast items well stocked and the area clean. The room was nice, quiet, and clean and the beds comfortable. Our daughter enjoyed the indoor pool and we took advantage of the hot tub. This Fairfield Inn was conveniently located just off I-30 but we didn't hear the traffic or trains. The afternoon cookies at the front desk were yummy! David Moran, the GM runs a great hotel and was a pleasure to deal with. Looking forward to our next stay here.More</t>
   </si>
   <si>
+    <t>98BC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r144792082-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2223,6 +2505,9 @@
     <t>Stayed at the Fairfield 4 nites recently while in town due to a relative's emergency hospitalization. The hotel is extremely clean, beds are wonderfully comfortable (unlike most hotels), breakfast buffet incredible, a small "marketplace" by front counter to buy snacks -- even soups, frozen meals/sandwiches, variety of sodas/waters, etc.  And I cannot say enough about the wonderful staff; they all went well above and beyond the typical "customer service", including making sure we had 2 rooms for our family members over a book-up weekend, and each and every one of them had the most positive "can do" attitude.  They were beyond patient, kind and compassionate with us during an extremely difficult time, and our family will be forever grateful.More</t>
   </si>
   <si>
+    <t>Cheryl G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r144032220-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2250,6 +2535,9 @@
     <t>The Fairfield Inn in Fort Worth on University Drive is a really nice place to stay for folks who need shelter - but who do not want to spend a fortune.  Though it is tricky to enter off University Drive, the rooms are clean and comfortable; the breakfast buffet offers a wide variety of selections; the staff are friendly and helpful; and they respond to every request.  And... the freshly baked cookies are a treat upon check-in. I left my phone on the table in the room at check-out; and before we could drive away, a housekeeper came running out to the car to catch me and deliver my phone  I really appreciated that!More</t>
   </si>
   <si>
+    <t>Foodietexgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r140945783-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2562,9 @@
     <t>Enjoyed staying at the Fairfield in one of my favorite areas of Fort Worth.  Patreace at the front desk was very nice and welcoming.  Fairfield is standard, not fancy, but if you need a clean convenient place to stay, this is a good choice.  You are near the train tracks and may hear a train at night, but that did not bother me at all.  Although I was in town for a seminar downtown, this hotel is located directly behind Macaroni Grill in an just across from one of my favorite shopping areas. Still convenient to the central downtown commute.More</t>
   </si>
   <si>
+    <t>CarolMc_65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r133373148-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2292,6 +2583,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>jenjen006969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r131752483-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2319,6 +2613,9 @@
     <t>This hotel has been recently renovated and features modern decor and super friendly staff.  I reserved 2 rooms during a busy weekend (almost all hotels in downtown were booked) and I was pleasantly surprised at the quality of the Fairfield Inn.  The bed was SUPER COMFY - nothing like typical hotel mattresses, and something I would expect in a high-end, 4-5 star hotel.  We booked a King room and a King Suite and both were superb - the king suite was spacious and enough room for several people to hang out in comfortably.  Breakfast was complimentary the next day and the hotel also has a large indoor pool &amp; hot tub.  Dave Moran is the general manager and his customer service was excellent - he was extremely attentive and friendly and you could tell he ran a tight ship!  I would absolutely stay at this hotel again and would recommend it to anyone.  Book here first when you're looking for a quality Fort Worth hotel!  Conveniently located in walking distance of restaurants, jogging trails, Fort Worth Zoo, and lots of fun shops.More</t>
   </si>
   <si>
+    <t>AggieAbroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r129181566-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2346,6 +2643,9 @@
     <t>I reserved two rooms at the Fairfield for a girlfriends reunion (5 of us) in late April.  We were on the second floor at the back of the hotel (rooms 221 and 223).  Although the hotel is close to I30 and railroad tracks, we never heard traffic or train noise.  The hotel was quiet and very comfortable.  The rate was reasonable and the staff courteous and helpful.  The complementary breakfast offered the usual buffet of waffles, cereal, toast, yogurt, bagels, coffee, juice, and fruit.  The pool looked inviting (we didn't swim).  The exercise room is small:  treadmills and weights.  So overall, this is a good place to stay for the money.  The hotel's location (University Drive) makes it an excellent choice.  You'll be minutes away from the Fort Worth Zoo, Botanical Gardens, TCU, and the cultural district (museums).  Several restaurants are within reasonable walking distance (without crossing University).More</t>
   </si>
   <si>
+    <t>okinok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r127032435-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2373,6 +2673,9 @@
     <t>We got this hotel through a Priceline bid and we were very pleasantly surprised.   We took our children (7 and 5) to Fort Worth for a long weekend (3/24 to 3/26) to visit the zoo and Log Cabin Village.  We have stayed before at a Marriott Residence Inn, and this seemed quite similar except for the rooms which are more traditional hotel rooms instead of suites with kitchens.  The woman who greeted us and checked us in was very friendly and extremely helpful.  The housekeeping staff were very pleasant, and we were very happy with the breakfast service (the woman who ran that was in constant motion keeping everything stocked).  There was a small indoor pool about 3 feet deep which was perfect for my five year old daughter.  The location was perfect for people who don't like to get in their cars.  From the front, on University, it looks like the location isn't great for walking because there is a busy street and lots of suburban type chains.  However, if you cross a small street in the back, you have access to the Trinity Trail system.  We walked from the hotel to the zoo (about 3/4 of a mile) and we also walked downtown (Trinity Trail to Trinity Park and then 7th street to downtown) and it was a pleasant long walk.  I think you could do an easy walk to the Arboretum or Log Cabin Village, though we...We got this hotel through a Priceline bid and we were very pleasantly surprised.   We took our children (7 and 5) to Fort Worth for a long weekend (3/24 to 3/26) to visit the zoo and Log Cabin Village.  We have stayed before at a Marriott Residence Inn, and this seemed quite similar except for the rooms which are more traditional hotel rooms instead of suites with kitchens.  The woman who greeted us and checked us in was very friendly and extremely helpful.  The housekeeping staff were very pleasant, and we were very happy with the breakfast service (the woman who ran that was in constant motion keeping everything stocked).  There was a small indoor pool about 3 feet deep which was perfect for my five year old daughter.  The location was perfect for people who don't like to get in their cars.  From the front, on University, it looks like the location isn't great for walking because there is a busy street and lots of suburban type chains.  However, if you cross a small street in the back, you have access to the Trinity Trail system.  We walked from the hotel to the zoo (about 3/4 of a mile) and we also walked downtown (Trinity Trail to Trinity Park and then 7th street to downtown) and it was a pleasant long walk.  I think you could do an easy walk to the Arboretum or Log Cabin Village, though we didn't actually do the walk.  They had a handy fold up map of the trails in the hotel lobby and I can imagine that if you brought bikes, or really liked to walk, you could probably find pleasant routes to much of central Fort Worth.  We did have to drive for food, because we couldn't find restaurants we were interested in nearby.  We only paid $70 per night on Priceline, so obviously it was a great deal for us.   The regular price is much more expensive ($140??), and I cannot say whether it would be worth it because I can't stomach the $100 to $150 prices that hotels often charge.  I gave a five for value based on what we paid.More</t>
   </si>
   <si>
+    <t>texasrepublichistory</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r123554010-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2397,6 +2700,9 @@
     <t>Stayed here with my wife on a trip to the Ft. Worth Stock Show and Rodeo. Located near the intersection of I-30 and University Dr., this hotel is very convenient to the cultural district with art, history, and science museums and the Will Rogers Coliseum. We were greeted by two very friendly young men, who checked us in very quickly. Even though it is near the highway, the road noise was minimal. The bad point was that the overpass channeled the train noises and whistle right to our window. The room was very clean and well-decorated, but a little crowded with cabinet for microwave and frig, nice desk and chair, chest w/flat screen TV, king bed and side tables, and a reading chair. The bathroom was large and clean with nice fluffy towels. I found the bed too soft but my wife said it was "like sleeping on a cloud" and really liked it. We both disliked the small foam pillows. Although we did not eat in the hotel, we checked out the breakfast area in the morning and it appeared to offer a good selection of fruit, cereals, breads, waffles, and microwave breakfast sandwiches. There are good restaurants within walking distance and fast food and Chili's across the street. Although more expensive than I usually look for, you're paying for a clean, safe, comfortable room, very close to the cultural district and event center. This will be our choice...Stayed here with my wife on a trip to the Ft. Worth Stock Show and Rodeo. Located near the intersection of I-30 and University Dr., this hotel is very convenient to the cultural district with art, history, and science museums and the Will Rogers Coliseum. We were greeted by two very friendly young men, who checked us in very quickly. Even though it is near the highway, the road noise was minimal. The bad point was that the overpass channeled the train noises and whistle right to our window. The room was very clean and well-decorated, but a little crowded with cabinet for microwave and frig, nice desk and chair, chest w/flat screen TV, king bed and side tables, and a reading chair. The bathroom was large and clean with nice fluffy towels. I found the bed too soft but my wife said it was "like sleeping on a cloud" and really liked it. We both disliked the small foam pillows. Although we did not eat in the hotel, we checked out the breakfast area in the morning and it appeared to offer a good selection of fruit, cereals, breads, waffles, and microwave breakfast sandwiches. There are good restaurants within walking distance and fast food and Chili's across the street. Although more expensive than I usually look for, you're paying for a clean, safe, comfortable room, very close to the cultural district and event center. This will be our choice when we are in Fort Worth again.More</t>
   </si>
   <si>
+    <t>Jemrn61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r123376596-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2415,6 +2721,9 @@
     <t>We have been staying at this hotel several times a year for the past 10 years. The rooms are always clean, the breakfast good and the staff friendly. We always stay here during the Stock show and they are booked solid. Still, things run smoothly. They also have an indoor pool and hot tub that the kids enjoy. Bottom line, if you are going to be in Fort Worth going to the zoo, stock show or even TCU, this hotel is the place to stay.  It isn't the fanciest in Fort Worth but for the price, it can't be beat!More</t>
   </si>
   <si>
+    <t>Txtea12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r116482408-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2436,6 +2745,9 @@
     <t>My girls and I went to ck out TCU and I love this hotel.  It is super easy to find and easy to get on the freeway.  It is slightly away from the College Busy area, which is great to get on freeway.  It is located behind a Macaroni Grill, which made it easy to just walk there.  Hotel is safe, quiet, super clean rooms, and friendly staff.  The beds, linen, carpet, and bathrms were clean.  We slept awesome! The continental breakfast helped out tremendously.  We woke up late and the Breakfast employee just pulled out some food for us and made us feel at home.  THe A/C works great in the rooms. If my kid gets accepted at TCU, I am going to call this place home for our visits.More</t>
   </si>
   <si>
+    <t>fchopp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r100884461-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2457,6 +2769,9 @@
     <t>Wife and I stayed there with two grandkids (girls) March 12 -- a little getaway to start Spring break.  Our must have annemnities included two queens, indoor pool and hot tub, and breakfast.  I got a pretty decent rate via AAA discount, about $95 after tax, for a standard 2-queen room.   Parking is free.  The room included a microwave &amp; refrig.  All staff were very pleasant.     Let me say, Hilton properties are our first choice in hotels but Marriott is the dominant brand in the 76107 zip area we wanted to be around.  We were quite pleased with this Fairfield property.  The hotel looked like it was recently remodeled.  The quality of annemnitiies for the price was quite competative with a Hampton Inn or Holiday Inn Express.  If you're wanting to do Fort Worth's Trinity Trails, I don't think you can find better access.  I did a run there in the afternoon -- the big HOT tub with strong jets was just what I needed to recoup for the evening.  Hilton still has superior beds, but all else at this Fairfield met or exceeded our expectatations for this stay.     We would definitely recommend this hotel for similar outings as ours, and will probably return when we want to spend the evening in the Forest Park area of Ft. Worth.More</t>
   </si>
   <si>
+    <t>MikeyDyke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r100559724-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2472,6 +2787,9 @@
     <t>Overpriced hotel with active train tracks and expressway exit ramps out front, Macaroni Grill in front for your outstanding culinary needs, surly staff, broken equipment in the fitness center, old outdated room accomodations and - did I mention - totally overpriced i pay less for quality in Europe</t>
   </si>
   <si>
+    <t>Austinmike28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r67724042-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2493,6 +2811,9 @@
     <t>I really liked this hotel.  It was very close to downtown in what seemed like a decent area.  The price was also good too.  The breakfast in the morning, which is complementry, was also very good.  They have TEXAS shaped waffels, cereal, fruit, OJ, etc... An indoor pool and hot tub, didn't use them, but they looked nice.  We had zero problem with noise, even though train tracks and the freeway are close by.The hotel is also right on the Trinity River, which has a 28 mile hike &amp; bike path attached to it.  It was really nice to be able to run with some scenery and not on the treadmill.  I'd stay here again for sure.More</t>
   </si>
   <si>
+    <t>Cheesehead_In_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r65512692-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2511,6 +2832,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>onecog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r56458275-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2532,6 +2856,9 @@
     <t>I trust trip advisor because of the great reviews which are almost all accurate. I checked out this hotel, and no one mentioned the one GLARING thing! This hotel is the noisiest place I have ever stayed anywhere! It is right next to a freeway and a railway track! All night long, the freeway noise is disturbing, and every so often (all night long) a train goes through blowing it's whishtle! The walls and windows are so thin that on the fourth floor of the hotel I could still hear a car door open and close in the parking lot! Great location, comfortable rooms, polite staff, but unless you sleep like a rock no matter what the noise level is, this hotel is not for you! And the fitness center is small and ill equipped!More</t>
   </si>
   <si>
+    <t>ValkyrieRider97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r53492275-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2550,6 +2877,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>wlmoore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r25218684-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2571,6 +2901,9 @@
     <t>The location of this place is great with it being right along the river and the trail along the river being great for a run or a walk.  The staff was friendly enough and the room was clean.  But the "wireless internet access" might as well as have had me trying to connect by using smoke signals.  It was USELESS as a means for me to connect to my office's network or even to check personal email.  While I had good signal strength to the wireless access point, it would take several minutes for even the most simple web page to load.  Want to check in for your flight the next day?  Sure, but it took 20+ minutes and multiple page reloads to make it work for me.  This network slowness was not just on my own computer, but also on their business center's PC.More</t>
   </si>
   <si>
+    <t>VisitorFromMN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r14787494-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2589,6 +2922,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>sammieeMiami</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r14220508-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2604,6 +2940,9 @@
     <t>I guess the morning we showed up everyone was in a bad mood. you can just see it on everone's faces trying to be fake. their morning crew service sucks.....</t>
   </si>
   <si>
+    <t>stevev1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r13365054-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2625,6 +2964,9 @@
     <t>I stayed at the hotel for 2 nights and it was fine. 149.00 Per Night AAA Rate was pretty high to me for this class of hotel. The location was good and a Macaronie Grill is in the parking lot, so that made getting deiner easy enough.What I likedGood Location, Nice Staff, Easy to find.What I did not likeLow Shower Head  (under 5 feet high)Noisy Room (Yes you can hear the train and HIghway, but not horrible)Bathroom Fan was LoudBathroom had minor Mildew in ShowerTo sum it up I would stay here again if I had too, but I would ask for a room on the back of the hotel (I did and did not get one)and just know that hotels in the DFW area are over priced.More</t>
   </si>
   <si>
+    <t>WK0119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r12000374-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2640,6 +2982,9 @@
     <t>I stayed just recently for business and found the hotel clean and well maintained.  Several restuarants are in the area.  The area seemed pretty safe with an up scale shopping plaza across the road.  The breakfast was good with many options and well stocked.  The staff always said hello and goodbye.  Check in was easy.  I would stay there again.  There are the trains, but it was not a problem.</t>
   </si>
   <si>
+    <t>kciimtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r10363430-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2653,6 +2998,9 @@
   </si>
   <si>
     <t>First of all, the rooms are beautiful.  We never get to stay long enough to really appreciate it.  The bedding is the most comfortable and luxurious I have found in a hotel.  All the rooms have white faux down comforters and pillows.  I am still searching for some just like them for my home.  It is a very new hotel and is kept immaculately clean.   As others have mentioned, it is in an excellent location in Fort Worth.</t>
+  </si>
+  <si>
+    <t>Leslie A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109173-r4993272-Fairfield_Inn_Suites_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -3190,43 +3538,47 @@
       <c r="A2" t="n">
         <v>33878</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>29302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3244,56 +3596,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33878</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>34266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3309,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33878</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>137043</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3376,56 +3736,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33878</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3441,56 +3805,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33878</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>137044</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3506,56 +3874,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33878</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>137045</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3571,56 +3943,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33878</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>137046</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3638,56 +4014,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33878</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>137047</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3699,56 +4079,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33878</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>137048</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3764,56 +4148,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33878</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>115681</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3831,56 +4219,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33878</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>137049</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3898,56 +4290,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33878</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>137050</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3963,56 +4359,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33878</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>137051</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -4028,56 +4428,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33878</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>10380</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4089,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33878</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>137052</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -4156,56 +4564,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33878</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>137053</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4221,56 +4633,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33878</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>49045</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4288,56 +4704,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33878</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4349,56 +4769,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33878</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>81456</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4416,50 +4840,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33878</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>17545</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4479,50 +4907,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33878</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>137054</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4538,56 +4970,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33878</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>137055</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4607,50 +5043,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33878</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>137056</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4664,50 +5104,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33878</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>137057</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4727,50 +5171,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33878</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>23118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4788,32 +5236,36 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33878</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>54534</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
@@ -4830,51 +5282,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33878</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>137058</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4888,50 +5341,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33878</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>137059</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4949,41 +5406,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33878</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>137060</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -5002,50 +5463,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33878</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>91052</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -5063,50 +5528,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33878</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>44072</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5124,50 +5593,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33878</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>4212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5185,50 +5658,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33878</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>137061</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5248,50 +5725,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33878</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>137062</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -5309,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33878</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>137063</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5376,56 +5861,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="X36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33878</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>137064</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5439,50 +5928,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33878</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>41981</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5502,50 +5995,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33878</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>353</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5563,50 +6060,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33878</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>137065</v>
+      </c>
+      <c r="C40" t="s">
+        <v>360</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5620,50 +6121,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33878</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2740</v>
+      </c>
+      <c r="C41" t="s">
+        <v>366</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5681,50 +6186,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33878</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>137066</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5738,50 +6247,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33878</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>26971</v>
+      </c>
+      <c r="C43" t="s">
+        <v>378</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O43" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5801,50 +6314,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33878</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>78756</v>
+      </c>
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O44" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5862,50 +6379,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33878</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>137067</v>
+      </c>
+      <c r="C45" t="s">
+        <v>390</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5919,50 +6440,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33878</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5982,41 +6507,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33878</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="K47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -6033,56 +6562,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="X47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="Y47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33878</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>21798</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6100,41 +6633,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33878</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -6153,50 +6690,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33878</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>137068</v>
+      </c>
+      <c r="C50" t="s">
+        <v>424</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6210,50 +6751,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33878</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>137069</v>
+      </c>
+      <c r="C51" t="s">
+        <v>431</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="J51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="L51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="O51" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6267,50 +6812,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33878</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>137070</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6324,50 +6873,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33878</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>67853</v>
+      </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="J53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6385,56 +6938,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="X53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="Y53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33878</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>137071</v>
+      </c>
+      <c r="C54" t="s">
+        <v>455</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="J54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="L54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6454,50 +7011,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33878</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>137072</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="J55" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="L55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6515,56 +7076,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="X55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="Y55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33878</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>137073</v>
+      </c>
+      <c r="C56" t="s">
+        <v>471</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6582,50 +7147,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33878</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>11863</v>
+      </c>
+      <c r="C57" t="s">
+        <v>478</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J57" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6643,50 +7212,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33878</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>23962</v>
+      </c>
+      <c r="C58" t="s">
+        <v>484</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6700,50 +7273,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33878</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>15609</v>
+      </c>
+      <c r="C59" t="s">
+        <v>490</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="J59" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="K59" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6763,50 +7340,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33878</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>137074</v>
+      </c>
+      <c r="C60" t="s">
+        <v>498</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="J60" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6818,56 +7399,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33878</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>137075</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="J61" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6885,56 +7470,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="X61" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33878</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>137076</v>
+      </c>
+      <c r="C62" t="s">
+        <v>517</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6952,56 +7541,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="X62" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="Y62" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33878</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>137077</v>
+      </c>
+      <c r="C63" t="s">
+        <v>527</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="J63" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="K63" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="L63" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="O63" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -7019,50 +7612,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33878</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>23962</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="J64" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="K64" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7076,50 +7673,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33878</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>137078</v>
+      </c>
+      <c r="C65" t="s">
+        <v>539</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="J65" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="K65" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="L65" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7137,50 +7738,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33878</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C66" t="s">
+        <v>547</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="J66" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="K66" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="L66" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7198,50 +7803,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33878</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>137079</v>
+      </c>
+      <c r="C67" t="s">
+        <v>554</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="J67" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="K67" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="L67" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="O67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7259,41 +7868,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33878</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>137080</v>
+      </c>
+      <c r="C68" t="s">
+        <v>562</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="J68" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="K68" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="L68" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -7322,50 +7935,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33878</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>137081</v>
+      </c>
+      <c r="C69" t="s">
+        <v>568</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="J69" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="K69" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7379,41 +7996,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33878</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>137082</v>
+      </c>
+      <c r="C70" t="s">
+        <v>574</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="J70" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="K70" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="L70" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7442,50 +8063,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33878</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>19563</v>
+      </c>
+      <c r="C71" t="s">
+        <v>580</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="J71" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="K71" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="L71" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7503,56 +8128,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="X71" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="Y71" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33878</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>87654</v>
+      </c>
+      <c r="C72" t="s">
+        <v>590</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="J72" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="K72" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="L72" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="O72" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7566,41 +8195,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33878</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>137083</v>
+      </c>
+      <c r="C73" t="s">
+        <v>597</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="J73" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="K73" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="L73" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7627,56 +8260,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="X73" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="Y73" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33878</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>137084</v>
+      </c>
+      <c r="C74" t="s">
+        <v>606</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="J74" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="K74" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="L74" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7698,56 +8335,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="X74" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="Y74" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33878</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>13558</v>
+      </c>
+      <c r="C75" t="s">
+        <v>616</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="J75" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="K75" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="L75" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7769,56 +8410,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="X75" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="Y75" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33878</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>137085</v>
+      </c>
+      <c r="C76" t="s">
+        <v>625</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="J76" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="K76" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="L76" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7840,47 +8485,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="X76" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="Y76" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33878</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>137086</v>
+      </c>
+      <c r="C77" t="s">
+        <v>634</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="J77" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="K77" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="L77" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
@@ -7907,56 +8556,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="X77" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="Y77" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33878</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>137087</v>
+      </c>
+      <c r="C78" t="s">
+        <v>643</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="J78" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="K78" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="L78" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>573</v>
+        <v>649</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7980,50 +8633,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33878</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C79" t="s">
+        <v>650</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="J79" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="K79" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="L79" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="O79" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8047,50 +8704,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33878</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>38728</v>
+      </c>
+      <c r="C80" t="s">
+        <v>657</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="J80" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="K80" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="L80" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8112,56 +8773,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="X80" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="Y80" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33878</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>137088</v>
+      </c>
+      <c r="C81" t="s">
+        <v>666</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="J81" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="K81" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="L81" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8183,56 +8848,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="X81" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="Y81" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33878</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>137089</v>
+      </c>
+      <c r="C82" t="s">
+        <v>676</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="J82" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="K82" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="L82" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8256,50 +8925,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33878</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>105244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>683</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="J83" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="K83" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="L83" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8321,56 +8994,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="X83" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="Y83" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33878</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>137090</v>
+      </c>
+      <c r="C84" t="s">
+        <v>692</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="J84" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="K84" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="L84" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8392,47 +9069,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="X84" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="Y84" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33878</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>137091</v>
+      </c>
+      <c r="C85" t="s">
+        <v>702</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="J85" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="K85" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="L85" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
@@ -8459,56 +9140,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="X85" t="s">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="Y85" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33878</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>87619</v>
+      </c>
+      <c r="C86" t="s">
+        <v>711</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="J86" t="s">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="K86" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="L86" t="s">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8530,56 +9215,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="X86" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="Y86" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33878</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>137092</v>
+      </c>
+      <c r="C87" t="s">
+        <v>720</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>637</v>
+        <v>722</v>
       </c>
       <c r="J87" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="K87" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="L87" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8601,56 +9290,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="X87" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="Y87" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33878</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>137093</v>
+      </c>
+      <c r="C88" t="s">
+        <v>728</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>644</v>
+        <v>730</v>
       </c>
       <c r="J88" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="K88" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
       <c r="L88" t="s">
-        <v>647</v>
+        <v>733</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8672,56 +9365,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
       <c r="X88" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
       <c r="Y88" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33878</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>96323</v>
+      </c>
+      <c r="C89" t="s">
+        <v>738</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="J89" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="K89" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="L89" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8743,56 +9440,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="X89" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="Y89" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33878</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>137094</v>
+      </c>
+      <c r="C90" t="s">
+        <v>747</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="J90" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="K90" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
       <c r="L90" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8814,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="X90" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="Y90" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33878</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>137095</v>
+      </c>
+      <c r="C91" t="s">
+        <v>757</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="J91" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="K91" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="L91" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8885,56 +9590,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="X91" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="Y91" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33878</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>34266</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="J92" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="K92" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="L92" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="O92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8956,56 +9665,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
       <c r="X92" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="Y92" t="s">
-        <v>684</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33878</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>137096</v>
+      </c>
+      <c r="C93" t="s">
+        <v>774</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="J93" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="K93" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="L93" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9027,47 +9740,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
       <c r="X93" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="Y93" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33878</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>37274</v>
+      </c>
+      <c r="C94" t="s">
+        <v>781</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="J94" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="K94" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="L94" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -9094,47 +9811,51 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="X94" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="Y94" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33878</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>137097</v>
+      </c>
+      <c r="C95" t="s">
+        <v>790</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="J95" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="K95" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
       <c r="L95" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -9161,56 +9882,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="X95" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="Y95" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33878</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>136533</v>
+      </c>
+      <c r="C96" t="s">
+        <v>799</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="J96" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="K96" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="L96" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9232,56 +9957,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="X96" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="Y96" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33878</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>137098</v>
+      </c>
+      <c r="C97" t="s">
+        <v>809</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
       <c r="J97" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="K97" t="s">
-        <v>719</v>
+        <v>813</v>
       </c>
       <c r="L97" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9303,56 +10032,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="X97" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="Y97" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33878</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>14550</v>
+      </c>
+      <c r="C98" t="s">
+        <v>819</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>726</v>
+        <v>821</v>
       </c>
       <c r="J98" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="K98" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="L98" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="O98" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9374,56 +10107,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="X98" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="Y98" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33878</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>137099</v>
+      </c>
+      <c r="C99" t="s">
+        <v>829</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>735</v>
+        <v>831</v>
       </c>
       <c r="J99" t="s">
-        <v>736</v>
+        <v>832</v>
       </c>
       <c r="K99" t="s">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="L99" t="s">
-        <v>738</v>
+        <v>834</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9445,56 +10182,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>739</v>
+        <v>835</v>
       </c>
       <c r="X99" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="Y99" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33878</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>137100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>838</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
       <c r="J100" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="K100" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="L100" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="O100" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9518,50 +10259,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33878</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>137101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>845</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="J101" t="s">
-        <v>750</v>
+        <v>848</v>
       </c>
       <c r="K101" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="L101" t="s">
-        <v>752</v>
+        <v>850</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>753</v>
+        <v>851</v>
       </c>
       <c r="O101" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9583,56 +10328,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="X101" t="s">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c r="Y101" t="s">
-        <v>756</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33878</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>137102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>855</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>757</v>
+        <v>856</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>758</v>
+        <v>857</v>
       </c>
       <c r="J102" t="s">
-        <v>759</v>
+        <v>858</v>
       </c>
       <c r="K102" t="s">
-        <v>760</v>
+        <v>859</v>
       </c>
       <c r="L102" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
       <c r="O102" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9654,56 +10403,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>763</v>
+        <v>862</v>
       </c>
       <c r="X102" t="s">
-        <v>764</v>
+        <v>863</v>
       </c>
       <c r="Y102" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33878</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>137103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>865</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>766</v>
+        <v>866</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>767</v>
+        <v>867</v>
       </c>
       <c r="J103" t="s">
-        <v>768</v>
+        <v>868</v>
       </c>
       <c r="K103" t="s">
-        <v>769</v>
+        <v>869</v>
       </c>
       <c r="L103" t="s">
-        <v>770</v>
+        <v>870</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>771</v>
+        <v>871</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9725,56 +10478,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>772</v>
+        <v>872</v>
       </c>
       <c r="X103" t="s">
-        <v>773</v>
+        <v>873</v>
       </c>
       <c r="Y103" t="s">
-        <v>774</v>
+        <v>874</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33878</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>137104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>875</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>775</v>
+        <v>876</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="J104" t="s">
-        <v>777</v>
+        <v>878</v>
       </c>
       <c r="K104" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="L104" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="O104" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9796,56 +10553,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="X104" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
       <c r="Y104" t="s">
-        <v>782</v>
+        <v>883</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33878</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>78742</v>
+      </c>
+      <c r="C105" t="s">
+        <v>884</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>784</v>
+        <v>886</v>
       </c>
       <c r="J105" t="s">
-        <v>785</v>
+        <v>887</v>
       </c>
       <c r="K105" t="s">
-        <v>786</v>
+        <v>888</v>
       </c>
       <c r="L105" t="s">
-        <v>787</v>
+        <v>889</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9867,56 +10628,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="X105" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
       <c r="Y105" t="s">
-        <v>788</v>
+        <v>890</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33878</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>137105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>891</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>789</v>
+        <v>892</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="J106" t="s">
-        <v>791</v>
+        <v>894</v>
       </c>
       <c r="K106" t="s">
-        <v>792</v>
+        <v>895</v>
       </c>
       <c r="L106" t="s">
-        <v>793</v>
+        <v>896</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
       <c r="O106" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -9930,50 +10695,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>795</v>
+        <v>898</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33878</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>137106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>899</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>797</v>
+        <v>901</v>
       </c>
       <c r="J107" t="s">
-        <v>798</v>
+        <v>902</v>
       </c>
       <c r="K107" t="s">
-        <v>799</v>
+        <v>903</v>
       </c>
       <c r="L107" t="s">
-        <v>800</v>
+        <v>904</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="O107" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9997,50 +10766,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>802</v>
+        <v>906</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33878</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>137107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>907</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>803</v>
+        <v>908</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>804</v>
+        <v>909</v>
       </c>
       <c r="J108" t="s">
-        <v>805</v>
+        <v>910</v>
       </c>
       <c r="K108" t="s">
-        <v>806</v>
+        <v>911</v>
       </c>
       <c r="L108" t="s">
-        <v>807</v>
+        <v>912</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -10064,50 +10837,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>807</v>
+        <v>912</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>33878</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>59830</v>
+      </c>
+      <c r="C109" t="s">
+        <v>913</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>808</v>
+        <v>914</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>809</v>
+        <v>915</v>
       </c>
       <c r="J109" t="s">
-        <v>810</v>
+        <v>916</v>
       </c>
       <c r="K109" t="s">
-        <v>811</v>
+        <v>917</v>
       </c>
       <c r="L109" t="s">
-        <v>812</v>
+        <v>918</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>813</v>
+        <v>919</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10131,50 +10908,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>814</v>
+        <v>920</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>33878</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>19562</v>
+      </c>
+      <c r="C110" t="s">
+        <v>921</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>815</v>
+        <v>922</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>816</v>
+        <v>923</v>
       </c>
       <c r="J110" t="s">
-        <v>817</v>
+        <v>924</v>
       </c>
       <c r="K110" t="s">
-        <v>818</v>
+        <v>925</v>
       </c>
       <c r="L110" t="s">
-        <v>819</v>
+        <v>926</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>820</v>
+        <v>927</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10198,50 +10979,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>819</v>
+        <v>926</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>33878</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>137108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>928</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>822</v>
+        <v>930</v>
       </c>
       <c r="J111" t="s">
-        <v>823</v>
+        <v>931</v>
       </c>
       <c r="K111" t="s">
-        <v>824</v>
+        <v>932</v>
       </c>
       <c r="L111" t="s">
-        <v>825</v>
+        <v>933</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>826</v>
+        <v>934</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -10265,50 +11050,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>827</v>
+        <v>935</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>33878</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>137109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>936</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>828</v>
+        <v>937</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>829</v>
+        <v>938</v>
       </c>
       <c r="J112" t="s">
-        <v>830</v>
+        <v>939</v>
       </c>
       <c r="K112" t="s">
-        <v>831</v>
+        <v>940</v>
       </c>
       <c r="L112" t="s">
-        <v>832</v>
+        <v>941</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>833</v>
+        <v>942</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="s"/>
       <c r="Q112" t="s"/>
@@ -10322,50 +11111,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>832</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>33878</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>137110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>943</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>835</v>
+        <v>945</v>
       </c>
       <c r="J113" t="s">
-        <v>836</v>
+        <v>946</v>
       </c>
       <c r="K113" t="s">
-        <v>837</v>
+        <v>947</v>
       </c>
       <c r="L113" t="s">
-        <v>838</v>
+        <v>948</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>839</v>
+        <v>949</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10389,50 +11182,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>840</v>
+        <v>950</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>33878</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>97386</v>
+      </c>
+      <c r="C114" t="s">
+        <v>951</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>842</v>
+        <v>953</v>
       </c>
       <c r="J114" t="s">
-        <v>843</v>
+        <v>954</v>
       </c>
       <c r="K114" t="s">
-        <v>844</v>
+        <v>955</v>
       </c>
       <c r="L114" t="s">
-        <v>845</v>
+        <v>956</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>846</v>
+        <v>957</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>4</v>
@@ -10454,50 +11251,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>845</v>
+        <v>956</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>33878</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>137111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>958</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="J115" t="s">
-        <v>849</v>
+        <v>961</v>
       </c>
       <c r="K115" t="s">
-        <v>850</v>
+        <v>962</v>
       </c>
       <c r="L115" t="s">
-        <v>851</v>
+        <v>963</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>846</v>
+        <v>957</v>
       </c>
       <c r="O115" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10511,50 +11312,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>851</v>
+        <v>963</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>33878</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>137112</v>
+      </c>
+      <c r="C116" t="s">
+        <v>964</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>852</v>
+        <v>965</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>853</v>
+        <v>966</v>
       </c>
       <c r="J116" t="s">
-        <v>854</v>
+        <v>967</v>
       </c>
       <c r="K116" t="s">
-        <v>855</v>
+        <v>968</v>
       </c>
       <c r="L116" t="s">
-        <v>856</v>
+        <v>969</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
       </c>
       <c r="N116" t="s">
-        <v>857</v>
+        <v>970</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -10578,41 +11383,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>858</v>
+        <v>971</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>33878</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>137113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>972</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>859</v>
+        <v>973</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>860</v>
+        <v>974</v>
       </c>
       <c r="J117" t="s">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="K117" t="s">
-        <v>862</v>
+        <v>976</v>
       </c>
       <c r="L117" t="s">
-        <v>863</v>
+        <v>977</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
@@ -10631,41 +11440,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>863</v>
+        <v>977</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>33878</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>137114</v>
+      </c>
+      <c r="C118" t="s">
+        <v>978</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>864</v>
+        <v>979</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>865</v>
+        <v>980</v>
       </c>
       <c r="J118" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
       <c r="K118" t="s">
-        <v>867</v>
+        <v>982</v>
       </c>
       <c r="L118" t="s">
-        <v>868</v>
+        <v>983</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
@@ -10684,41 +11497,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>868</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>33878</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>72760</v>
+      </c>
+      <c r="C119" t="s">
+        <v>984</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>869</v>
+        <v>985</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>870</v>
+        <v>986</v>
       </c>
       <c r="J119" t="s">
-        <v>871</v>
+        <v>987</v>
       </c>
       <c r="K119" t="s">
-        <v>872</v>
+        <v>988</v>
       </c>
       <c r="L119" t="s">
-        <v>873</v>
+        <v>989</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
@@ -10745,41 +11562,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>873</v>
+        <v>989</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>33878</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>418</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>874</v>
+        <v>990</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>875</v>
+        <v>991</v>
       </c>
       <c r="J120" t="s">
-        <v>876</v>
+        <v>992</v>
       </c>
       <c r="K120" t="s">
-        <v>877</v>
+        <v>993</v>
       </c>
       <c r="L120" t="s">
-        <v>878</v>
+        <v>994</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
@@ -10806,7 +11627,7 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>879</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
